--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value733.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value733.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152454645764168</v>
+        <v>0.8736128211021423</v>
       </c>
       <c r="B1">
-        <v>1.668486630087105</v>
+        <v>1.230874300003052</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.142632246017456</v>
       </c>
       <c r="D1">
         <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.075910407194195</v>
+        <v>1.760517358779907</v>
       </c>
     </row>
   </sheetData>
